--- a/doc/PRO/Tests.xlsx
+++ b/doc/PRO/Tests.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18067"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\David\Documents\Cours\HEIG\2eme\S2\PRO\projet\doc\PRO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Denise\Desktop\PRO\ProjetDeSemestre\projet\doc\PRO\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,12 +24,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="48">
   <si>
     <t>Résultat</t>
-  </si>
-  <si>
-    <t>Remarque</t>
   </si>
   <si>
     <t>Oui</t>
@@ -48,9 +45,6 @@
     <t>Un client peut se connecter à un serveur</t>
   </si>
   <si>
-    <t>Plusieurs client peuvent se connecter à un serveur</t>
-  </si>
-  <si>
     <t>Les clients voient la mise à jour de la liste de lecture</t>
   </si>
   <si>
@@ -61,9 +55,6 @@
   </si>
   <si>
     <t>Le serveur peut changer l'état de la musique</t>
-  </si>
-  <si>
-    <t>Les client peuvent proposer des nouveaux morceaux</t>
   </si>
   <si>
     <t>Le serveur peut proposer de nouveaux morceaux</t>
@@ -97,13 +88,7 @@
     <t>Non</t>
   </si>
   <si>
-    <t>Deux serveurs ayant le même ne pose pas problème</t>
-  </si>
-  <si>
     <t>Fonctionne mais l'interface graphique ne se met pas à jour</t>
-  </si>
-  <si>
-    <t>Problème de mise à jour de l'intefrace graphique chez les clients</t>
   </si>
   <si>
     <t xml:space="preserve">Un client/serveur ne peut pas changer le score d'un
@@ -116,10 +101,6 @@
     <t>Les sessions des clients sont bien mises à jour sur le serveur</t>
   </si>
   <si>
-    <t>Un client démarré avant le serveur voit se dernier lorsque 
-celui-ci démarre</t>
-  </si>
-  <si>
     <t>Lorsque le serveur se déconnecte, il n'y a aucun problème 
 chez les client</t>
   </si>
@@ -150,36 +131,58 @@
     <t>Redimensionner la fenêtre fonctionne</t>
   </si>
   <si>
+    <t>Il est possible de voir ses playlist enregistrées</t>
+  </si>
+  <si>
+    <t>Partiel</t>
+  </si>
+  <si>
+    <t>Les clients voient les serveurs disponibles</t>
+  </si>
+  <si>
+    <t>Tous les fichier dans le bon format sont joués</t>
+  </si>
+  <si>
+    <t>Certains .mp3 ne se jouent pas</t>
+  </si>
+  <si>
+    <t>Remarques</t>
+  </si>
+  <si>
+    <t>Certaines fois, un redémarage de la carte réseau est nécessaire</t>
+  </si>
+  <si>
+    <t>Plusieurs clients peuvent se connecter à un serveur</t>
+  </si>
+  <si>
+    <t>Les client peuvent proposer de nouveaux morceaux</t>
+  </si>
+  <si>
     <t>Un morceau peut être favorisé et mis dans la playlist
-Favorite par un serveur</t>
+"Favorites" par un client</t>
   </si>
   <si>
     <t>Un morceau peut être favorisé et mis dans la playlist
-Favorite par un client</t>
-  </si>
-  <si>
-    <t>Il est possible de voir ses playlist enregistrées</t>
-  </si>
-  <si>
-    <t>Partiel</t>
-  </si>
-  <si>
-    <t>Les clients voient les serveurs disponibles</t>
-  </si>
-  <si>
-    <t>Certaines fois un redémarage de la carte réseau est nécessaire</t>
-  </si>
-  <si>
-    <t>Tous les fichier dans le bon format sont joués</t>
-  </si>
-  <si>
-    <t>Certains .mp3 ne se jouent pas</t>
+"Favorites" par un serveur</t>
+  </si>
+  <si>
+    <t>Deux serveurs ayant le même nom ne pose pas problème</t>
+  </si>
+  <si>
+    <t>Un client démarré avant le serveur voit ce dernier lorsque 
+celui-ci démarre</t>
+  </si>
+  <si>
+    <t>Problème de mise à jour de l'interface graphique chez les clients</t>
+  </si>
+  <si>
+    <t>Marche chez le client mais pas chez le serveur</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -558,8 +561,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:E36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -570,306 +573,309 @@
   <sheetData>
     <row r="2" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D2" t="s">
         <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>1</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="3:5" ht="30" x14ac:dyDescent="0.25">
       <c r="C4" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C5" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D6" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C7" s="1" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="D7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="D9" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D10" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D11" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D12" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="3:5" ht="30" x14ac:dyDescent="0.25">
       <c r="C13" s="1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D13" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="3:5" ht="30" x14ac:dyDescent="0.25">
       <c r="C14" s="1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D14" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="D16" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D18" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D19" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="3:5" ht="30" x14ac:dyDescent="0.25">
       <c r="C20" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D20" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="3:5" ht="30" x14ac:dyDescent="0.25">
       <c r="C21" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D21" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="3:5" ht="30" x14ac:dyDescent="0.25">
       <c r="C22" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D22" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="23" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D23" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D24" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D25" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="E25" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="D26" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E26" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
     </row>
     <row r="27" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D27" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="3:5" ht="30" x14ac:dyDescent="0.25">
       <c r="C28" s="1" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="D28" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="3:5" ht="30" x14ac:dyDescent="0.25">
       <c r="C29" s="1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D29" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E29" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="30" spans="3:5" ht="30" x14ac:dyDescent="0.25">
       <c r="C30" s="1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D30" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="3:5" ht="30" x14ac:dyDescent="0.25">
       <c r="C31" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D31" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E31" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="32" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C32" s="1" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="D32" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E32" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="33" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C33" s="1" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D33" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C34" s="1" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D34" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C35" s="1" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="D35" t="s">
-        <v>22</v>
+        <v>19</v>
+      </c>
+      <c r="E35" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="36" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C36" s="1" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="D36" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E36" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/doc/PRO/Tests.xlsx
+++ b/doc/PRO/Tests.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18067"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Denise\Desktop\PRO\ProjetDeSemestre\projet\doc\PRO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\David\Documents\Cours\HEIG\2eme\S2\PRO\projet\doc\PRO\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="51">
   <si>
     <t>Résultat</t>
   </si>
@@ -91,10 +91,6 @@
     <t>Fonctionne mais l'interface graphique ne se met pas à jour</t>
   </si>
   <si>
-    <t xml:space="preserve">Un client/serveur ne peut pas changer le score d'un
-morceau de plus d'un point </t>
-  </si>
-  <si>
     <t>Une action est effectuée lorsque la majorité des utilisateurs ont voté pour cette action</t>
   </si>
   <si>
@@ -177,12 +173,25 @@
   </si>
   <si>
     <t>Marche chez le client mais pas chez le serveur</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Un utilisateur ne peut pas changer le score d'un
+morceau de plus d'un point </t>
+  </si>
+  <si>
+    <t>Client</t>
+  </si>
+  <si>
+    <t>Commun</t>
+  </si>
+  <si>
+    <t>Serveur</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -192,15 +201,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -208,14 +223,233 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -559,326 +793,401 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C2:E36"/>
+  <dimension ref="B1:E37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="54" customWidth="1"/>
-    <col min="5" max="5" width="67.42578125" customWidth="1"/>
+    <col min="3" max="3" width="57.7109375" customWidth="1"/>
+    <col min="5" max="5" width="74" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C2" t="s">
+    <row r="1" spans="2:5" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:5" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="7"/>
+    </row>
+    <row r="4" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="3"/>
+      <c r="C4" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="8" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="3:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="C4" s="1" t="s">
+    <row r="5" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="3"/>
+      <c r="C5" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" s="9"/>
+    </row>
+    <row r="6" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="3"/>
+      <c r="C6" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="E6" s="8"/>
+    </row>
+    <row r="7" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="3"/>
+      <c r="C7" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="E7" s="9"/>
+    </row>
+    <row r="8" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="3"/>
+      <c r="C8" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="E8" s="8"/>
+    </row>
+    <row r="9" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="3"/>
+      <c r="C9" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="E9" s="9"/>
+    </row>
+    <row r="10" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="3"/>
+      <c r="C10" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="3"/>
+      <c r="C11" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="E11" s="9"/>
+    </row>
+    <row r="12" spans="2:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="4"/>
+      <c r="C12" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="E12" s="10"/>
+    </row>
+    <row r="13" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C13" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="E13" s="7"/>
+    </row>
+    <row r="14" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="3"/>
+      <c r="C14" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="E14" s="8"/>
+    </row>
+    <row r="15" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="3"/>
+      <c r="C15" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="E15" s="9"/>
+    </row>
+    <row r="16" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="3"/>
+      <c r="C16" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="E16" s="8"/>
+    </row>
+    <row r="17" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="3"/>
+      <c r="C17" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="E17" s="9"/>
+    </row>
+    <row r="18" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="3"/>
+      <c r="C18" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="D18" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="E18" s="8"/>
+    </row>
+    <row r="19" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="3"/>
+      <c r="C19" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="E19" s="9"/>
+    </row>
+    <row r="20" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="3"/>
+      <c r="C20" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D20" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="E20" s="8"/>
+    </row>
+    <row r="21" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="3"/>
+      <c r="C21" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="D21" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="E21" s="9"/>
+    </row>
+    <row r="22" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="3"/>
+      <c r="C22" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="D22" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="E22" s="8"/>
+    </row>
+    <row r="23" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="3"/>
+      <c r="C23" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="D23" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="3"/>
+      <c r="C24" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="3"/>
+      <c r="C25" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="D25" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="E25" s="9"/>
+    </row>
+    <row r="26" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="3"/>
+      <c r="C26" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="D26" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="E26" s="8"/>
+    </row>
+    <row r="27" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="3"/>
+      <c r="C27" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="D27" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="E27" s="9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="4"/>
+      <c r="C28" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="D28" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="E28" s="10" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C29" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="D4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C7" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D7" t="s">
-        <v>1</v>
-      </c>
-      <c r="E7" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="8" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C9" t="s">
-        <v>40</v>
-      </c>
-      <c r="D9" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C10" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D11" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C12" t="s">
+      <c r="D29" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="E29" s="7"/>
+    </row>
+    <row r="30" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="3"/>
+      <c r="C30" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="D12" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="3:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="C13" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D13" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="3:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="C14" s="1" t="s">
+      <c r="D30" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="E30" s="8"/>
+    </row>
+    <row r="31" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="3"/>
+      <c r="C31" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="D31" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="E31" s="9"/>
+    </row>
+    <row r="32" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="3"/>
+      <c r="C32" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="D32" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="E32" s="8"/>
+    </row>
+    <row r="33" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="3"/>
+      <c r="C33" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="D33" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="E33" s="9"/>
+    </row>
+    <row r="34" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="3"/>
+      <c r="C34" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="D34" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="E34" s="8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="3"/>
+      <c r="C35" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="D14" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C15" t="s">
-        <v>9</v>
-      </c>
-      <c r="D15" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C16" t="s">
-        <v>41</v>
-      </c>
-      <c r="D16" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C17" t="s">
-        <v>10</v>
-      </c>
-      <c r="D17" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C18" t="s">
-        <v>11</v>
-      </c>
-      <c r="D18" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C19" t="s">
-        <v>12</v>
-      </c>
-      <c r="D19" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="3:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="C20" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D20" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="3:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="C21" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D21" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="3:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="C22" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D22" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="23" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C23" t="s">
-        <v>14</v>
-      </c>
-      <c r="D23" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C24" t="s">
-        <v>15</v>
-      </c>
-      <c r="D24" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C25" t="s">
-        <v>18</v>
-      </c>
-      <c r="D25" t="s">
-        <v>34</v>
-      </c>
-      <c r="E25" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="26" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C26" t="s">
-        <v>44</v>
-      </c>
-      <c r="D26" t="s">
-        <v>19</v>
-      </c>
-      <c r="E26" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="27" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C27" t="s">
-        <v>23</v>
-      </c>
-      <c r="D27" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="3:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="C28" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D28" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="3:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="C29" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D29" t="s">
-        <v>19</v>
-      </c>
-      <c r="E29" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="30" spans="3:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="C30" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D30" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="3:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="C31" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D31" t="s">
-        <v>19</v>
-      </c>
-      <c r="E31" t="s">
+      <c r="D35" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="E35" s="9"/>
+    </row>
+    <row r="36" spans="2:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B36" s="4"/>
+      <c r="C36" s="21" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="32" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C32" s="1" t="s">
+      <c r="D36" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="E36" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="D32" t="s">
-        <v>1</v>
-      </c>
-      <c r="E32" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="33" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C33" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D33" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C34" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D34" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C35" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D35" t="s">
-        <v>19</v>
-      </c>
-      <c r="E35" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="36" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C36" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D36" t="s">
-        <v>19</v>
-      </c>
-      <c r="E36" t="s">
-        <v>37</v>
-      </c>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B37" s="1"/>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B3:B12"/>
+    <mergeCell ref="B13:B28"/>
+    <mergeCell ref="B29:B36"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>